--- a/medicine/Enfance/Alex_Coutet/Alex_Coutet.xlsx
+++ b/medicine/Enfance/Alex_Coutet/Alex_Coutet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Coutet, né à Venerque en 1877 et mort en 1952, est un écrivain et poète français, auteur de littérature populaire et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publie des poèmes et divers textes dans la revue toulousaine L'Archer. Il donne aussi un long article de fond sur sa ville natale dans La Dépêche de Toulouse qui sera édité en volume : Toulouse: ville artistique, plaisante et curieuse.
 Dès 1916, il fait paraître des ouvrages de littérature d'enfance et de jeunesse, un genre qu'il continuera de pratiquer notamment pour les éditions Sirven, où ses récits merveilleux ou hagiographiques seront richement illustrés par divers dessinateurs.
@@ -546,15 +560,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Stop (U contre U), Paris, Librairie des Champs-Élysées, Le Masque no 64, 1930
-La Tabatière en or, Lyon, Puits-Pelu, coll. Le Glaive no 19, 1946
-Autres romans
-Le Miroir de l'invisible, Paris, La Renaissance du Livre, 1921
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stop (U contre U), Paris, Librairie des Champs-Élysées, Le Masque no 64, 1930
+La Tabatière en or, Lyon, Puits-Pelu, coll. Le Glaive no 19, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Miroir de l'invisible, Paris, La Renaissance du Livre, 1921
 Le Dragon vert était pour Tchoung-King, Toulouse, Didier, 1945
-La Bête fantôme, Paris, Éditions Chantal, coll. Les 3 A, 1946
-Littérature d'enfance et de jeunesse
-La Poudrerie de Rottweil, Paris, Larousse, Les Livres roses pour la jeunesse no 188, 1916
+La Bête fantôme, Paris, Éditions Chantal, coll. Les 3 A, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Poudrerie de Rottweil, Paris, Larousse, Les Livres roses pour la jeunesse no 188, 1916
 Le Trésor du tirailleur, Paris, Larousse, Les Livres roses pour la jeunesse no 204, 1917
 Les Vacances au cirque, Toulouse, Sirven, 1928
 Histoires de chats, Toulouse, Sirven, 1931
@@ -564,40 +651,76 @@
 Le Magicien des mers, Toulouse, Éditions S.T.A.E.L., coll. Junior no 6, 1947
 L"Extraordinaire Buffalo-Bill, Toulouse, Sirven, [s.d.]
 Histoire d'une ville racontée à ses enfants, Toulouse, Sirven, 1947
-Les Vainqueurs du ciel, éditions S.E.L.P.A. Paris, collection COQ-HARDI n° 42, 1950
-Autres publications
-Toulouse: ville artistique, plaisante et curieuse, Toulouse, Richard, 1926
+Les Vainqueurs du ciel, éditions S.E.L.P.A. Paris, collection COQ-HARDI n° 42, 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Coutet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Toulouse: ville artistique, plaisante et curieuse, Toulouse, Richard, 1926
 Jean Calas. Roué vif et innocent, Mas-Soubeyran, Musée du Désert en Cévennes, 1933
 Une visite chez Plantin, Toulouse, Les Cours professionnels des industries du livre, 1941
 La Vie du cirque, Grenoble, B. Arthaud, 1948</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alex_Coutet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alex_Coutet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 131-132.</t>
         </is>
